--- a/municipal/სასტუმროები/ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში/კახეთი/გურჯაანი.xlsx
+++ b/municipal/სასტუმროები/ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში/კახეთი/გურჯაანი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები\ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში\კახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\1 ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში\კახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>სამი და მეტ ადგილიანი</t>
   </si>
@@ -47,6 +47,9 @@
     <t>(ერთეული)</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -65,7 +68,7 @@
         <rFont val="Sylfaen"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> მონაცემები კომფიდენციალურია ან არ არის ხელმისაწვდომი.</t>
+      <t xml:space="preserve"> „ ...“ მონაცემები კომფიდენციალურია ან არ არის ხელმისაწვდომი.</t>
     </r>
   </si>
 </sst>
@@ -200,9 +203,6 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -241,6 +241,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -536,12 +539,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="16" customWidth="1"/>
-    <col min="2" max="13" width="9.140625" style="17"/>
-    <col min="14" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="30.7109375" style="15" customWidth="1"/>
+    <col min="2" max="13" width="9.140625" style="16"/>
+    <col min="14" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
@@ -558,265 +561,265 @@
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="13"/>
+      <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="11">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="10">
         <v>2010</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>2011</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>2012</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>2013</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>2014</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>2015</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>2016</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>2017</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>2018</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>2019</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>2020</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>2021</v>
       </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>17</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>17</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>17</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>83</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>92</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>103</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>103</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>103</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>228</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>276</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>286</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>340</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>11</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>12</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>15</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>15</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>15</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>85</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>90</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>91</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>101</v>
       </c>
-      <c r="N5" s="15"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6">
         <v>17</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>16</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>16</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>16</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>16</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>42</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>43</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>43</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>44</v>
       </c>
-      <c r="N6" s="15"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>13</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>13</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>13</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>47</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>49</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>57</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>57</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>57</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>92</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>125</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>133</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>172</v>
       </c>
-      <c r="N7" s="15"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>8</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>15</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>15</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>15</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>15</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>9</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>18</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>19</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>23</v>
       </c>
-      <c r="N8" s="15"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>

--- a/municipal/სასტუმროები/ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში/კახეთი/გურჯაანი.xlsx
+++ b/municipal/სასტუმროები/ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში/კახეთი/გურჯაანი.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\1 ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში\კახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმ. მუნიციპ\ნომრების რაოდენობა ქარ. EN\ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში\კახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA8E359-F29B-4FDA-A24F-D86F2B52BCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13755" windowHeight="11805"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="16995" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="გურჯაანი" sheetId="2" r:id="rId1"/>
@@ -75,24 +76,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="###0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -177,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -196,64 +191,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -530,45 +537,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="15" customWidth="1"/>
-    <col min="2" max="13" width="9.140625" style="16"/>
-    <col min="14" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="30.7109375" style="13" customWidth="1"/>
+    <col min="2" max="13" width="9.140625" style="14"/>
+    <col min="14" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
       <c r="B3" s="10">
         <v>2010</v>
       </c>
@@ -605,9 +610,14 @@
       <c r="M3" s="10">
         <v>2021</v>
       </c>
-      <c r="N3" s="13"/>
+      <c r="N3" s="10">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="10">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -647,9 +657,14 @@
       <c r="M4" s="5">
         <v>340</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="5">
+        <v>309</v>
+      </c>
+      <c r="O4" s="5">
+        <v>334</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -689,9 +704,14 @@
       <c r="M5" s="6">
         <v>101</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="6">
+        <v>27</v>
+      </c>
+      <c r="O5" s="6">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -731,9 +751,14 @@
       <c r="M6" s="6">
         <v>44</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="6">
+        <v>20</v>
+      </c>
+      <c r="O6" s="6">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -773,70 +798,79 @@
       <c r="M7" s="6">
         <v>172</v>
       </c>
-      <c r="N7" s="14"/>
+      <c r="N7" s="6">
+        <v>237</v>
+      </c>
+      <c r="O7" s="6">
+        <v>248</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="18">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="18">
         <v>2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="18">
         <v>8</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="18">
         <v>15</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="18">
         <v>15</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="18">
         <v>15</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="18">
         <v>15</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="18">
         <v>9</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="18">
         <v>18</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="18">
         <v>19</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="18">
         <v>23</v>
       </c>
-      <c r="N8" s="14"/>
+      <c r="N8" s="18">
+        <v>25</v>
+      </c>
+      <c r="O8" s="18">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="1">
     <mergeCell ref="A9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/municipal/სასტუმროები/ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში/კახეთი/გურჯაანი.xlsx
+++ b/municipal/სასტუმროები/ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში/კახეთი/გურჯაანი.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმ. მუნიციპ\ნომრების რაოდენობა ქარ. EN\ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში\კახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები_მუნიციპალიტეტები\1 ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში\კახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA8E359-F29B-4FDA-A24F-D86F2B52BCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F4875F-1D31-425C-BEA6-F61A6B6E519A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="16995" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21990" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="გურჯაანი" sheetId="2" r:id="rId1"/>
@@ -25,36 +25,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>სამი და მეტ ადგილიანი</t>
-  </si>
-  <si>
-    <t>ორ ადგილიანი</t>
-  </si>
-  <si>
-    <t>ერთ ადგილიანი</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>ლუქსი</t>
   </si>
   <si>
-    <t>ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში გურჯაანის მუნიციპალიტეტში</t>
-  </si>
-  <si>
-    <t>ნომრების რაოდენობა სულ</t>
-  </si>
-  <si>
     <t>(ერთეული)</t>
   </si>
   <si>
-    <t>…</t>
+    <t>ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში* გურჯაანის მუნიციპალიტეტში</t>
+  </si>
+  <si>
+    <t>*საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები</t>
+  </si>
+  <si>
+    <t>(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+  </si>
+  <si>
+    <t>(დეკლარირებული მონაცემები)</t>
+  </si>
+  <si>
+    <t>სულ</t>
+  </si>
+  <si>
+    <t>ერთადგილიანი</t>
+  </si>
+  <si>
+    <t>ორადგილიანი</t>
+  </si>
+  <si>
+    <t>სამი და მეტი ადგილით</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <u/>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Sylfaen"/>
@@ -69,7 +77,7 @@
         <rFont val="Sylfaen"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> „ ...“ მონაცემები კომფიდენციალურია ან არ არის ხელმისაწვდომი.</t>
+      <t xml:space="preserve"> "..." - მონაცემები კონფიდენციალურია ან არ არის ხელმისაწვდომი.</t>
     </r>
   </si>
 </sst>
@@ -81,7 +89,7 @@
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="###0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +106,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
@@ -116,8 +119,7 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
@@ -125,12 +127,10 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -144,32 +144,26 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -195,7 +189,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -207,55 +201,57 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -538,340 +534,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="13" customWidth="1"/>
-    <col min="2" max="13" width="9.140625" style="14"/>
-    <col min="14" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2" max="13" width="9.140625" style="7"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2011</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2012</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2013</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2014</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2015</v>
+      </c>
+      <c r="H4" s="10">
+        <v>2016</v>
+      </c>
+      <c r="I4" s="10">
+        <v>2017</v>
+      </c>
+      <c r="J4" s="10">
+        <v>2018</v>
+      </c>
+      <c r="K4" s="10">
+        <v>2019</v>
+      </c>
+      <c r="L4" s="10">
+        <v>2020</v>
+      </c>
+      <c r="M4" s="10">
+        <v>2021</v>
+      </c>
+      <c r="N4" s="10">
+        <v>2022</v>
+      </c>
+      <c r="O4" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="15">
+        <v>103</v>
+      </c>
+      <c r="H5" s="15">
+        <v>103</v>
+      </c>
+      <c r="I5" s="15">
+        <v>103</v>
+      </c>
+      <c r="J5" s="15">
+        <v>228</v>
+      </c>
+      <c r="K5" s="15">
+        <v>276</v>
+      </c>
+      <c r="L5" s="15">
+        <v>286</v>
+      </c>
+      <c r="M5" s="15">
+        <v>340</v>
+      </c>
+      <c r="N5" s="15">
+        <v>309</v>
+      </c>
+      <c r="O5" s="15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="16">
+        <v>15</v>
+      </c>
+      <c r="H6" s="16">
+        <v>15</v>
+      </c>
+      <c r="I6" s="16">
+        <v>15</v>
+      </c>
+      <c r="J6" s="16">
+        <v>85</v>
+      </c>
+      <c r="K6" s="16">
+        <v>90</v>
+      </c>
+      <c r="L6" s="16">
+        <v>91</v>
+      </c>
+      <c r="M6" s="16">
+        <v>101</v>
+      </c>
+      <c r="N6" s="16">
+        <v>27</v>
+      </c>
+      <c r="O6" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16">
+        <v>16</v>
+      </c>
+      <c r="H7" s="16">
+        <v>16</v>
+      </c>
+      <c r="I7" s="16">
+        <v>16</v>
+      </c>
+      <c r="J7" s="16">
+        <v>42</v>
+      </c>
+      <c r="K7" s="16">
+        <v>43</v>
+      </c>
+      <c r="L7" s="16">
+        <v>43</v>
+      </c>
+      <c r="M7" s="16">
+        <v>44</v>
+      </c>
+      <c r="N7" s="16">
+        <v>20</v>
+      </c>
+      <c r="O7" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16">
+        <v>57</v>
+      </c>
+      <c r="H8" s="16">
+        <v>57</v>
+      </c>
+      <c r="I8" s="16">
+        <v>57</v>
+      </c>
+      <c r="J8" s="16">
+        <v>92</v>
+      </c>
+      <c r="K8" s="16">
+        <v>125</v>
+      </c>
+      <c r="L8" s="16">
+        <v>133</v>
+      </c>
+      <c r="M8" s="16">
+        <v>172</v>
+      </c>
+      <c r="N8" s="16">
+        <v>237</v>
+      </c>
+      <c r="O8" s="16">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="20">
+        <v>15</v>
+      </c>
+      <c r="H9" s="20">
+        <v>15</v>
+      </c>
+      <c r="I9" s="20">
+        <v>15</v>
+      </c>
+      <c r="J9" s="20">
+        <v>9</v>
+      </c>
+      <c r="K9" s="20">
+        <v>18</v>
+      </c>
+      <c r="L9" s="20">
+        <v>19</v>
+      </c>
+      <c r="M9" s="20">
+        <v>23</v>
+      </c>
+      <c r="N9" s="20">
+        <v>25</v>
+      </c>
+      <c r="O9" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="10">
-        <v>2010</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2011</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2012</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2013</v>
-      </c>
-      <c r="F3" s="10">
-        <v>2014</v>
-      </c>
-      <c r="G3" s="10">
-        <v>2015</v>
-      </c>
-      <c r="H3" s="10">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="10">
-        <v>2017</v>
-      </c>
-      <c r="J3" s="10">
-        <v>2018</v>
-      </c>
-      <c r="K3" s="10">
-        <v>2019</v>
-      </c>
-      <c r="L3" s="10">
-        <v>2020</v>
-      </c>
-      <c r="M3" s="10">
-        <v>2021</v>
-      </c>
-      <c r="N3" s="10">
-        <v>2022</v>
-      </c>
-      <c r="O3" s="10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5">
-        <v>83</v>
-      </c>
-      <c r="F4" s="5">
-        <v>92</v>
-      </c>
-      <c r="G4" s="5">
-        <v>103</v>
-      </c>
-      <c r="H4" s="5">
-        <v>103</v>
-      </c>
-      <c r="I4" s="5">
-        <v>103</v>
-      </c>
-      <c r="J4" s="5">
-        <v>228</v>
-      </c>
-      <c r="K4" s="5">
-        <v>276</v>
-      </c>
-      <c r="L4" s="5">
-        <v>286</v>
-      </c>
-      <c r="M4" s="5">
-        <v>340</v>
-      </c>
-      <c r="N4" s="5">
-        <v>309</v>
-      </c>
-      <c r="O4" s="5">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6">
-        <v>12</v>
-      </c>
-      <c r="G5" s="6">
-        <v>15</v>
-      </c>
-      <c r="H5" s="6">
-        <v>15</v>
-      </c>
-      <c r="I5" s="6">
-        <v>15</v>
-      </c>
-      <c r="J5" s="6">
-        <v>85</v>
-      </c>
-      <c r="K5" s="6">
-        <v>90</v>
-      </c>
-      <c r="L5" s="6">
-        <v>91</v>
-      </c>
-      <c r="M5" s="6">
-        <v>101</v>
-      </c>
-      <c r="N5" s="6">
-        <v>27</v>
-      </c>
-      <c r="O5" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6">
-        <v>16</v>
-      </c>
-      <c r="G6" s="6">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6">
-        <v>16</v>
-      </c>
-      <c r="I6" s="6">
-        <v>16</v>
-      </c>
-      <c r="J6" s="6">
-        <v>42</v>
-      </c>
-      <c r="K6" s="6">
-        <v>43</v>
-      </c>
-      <c r="L6" s="6">
-        <v>43</v>
-      </c>
-      <c r="M6" s="6">
-        <v>44</v>
-      </c>
-      <c r="N6" s="6">
-        <v>20</v>
-      </c>
-      <c r="O6" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6">
-        <v>47</v>
-      </c>
-      <c r="F7" s="6">
-        <v>49</v>
-      </c>
-      <c r="G7" s="6">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6">
-        <v>57</v>
-      </c>
-      <c r="I7" s="6">
-        <v>57</v>
-      </c>
-      <c r="J7" s="6">
-        <v>92</v>
-      </c>
-      <c r="K7" s="6">
-        <v>125</v>
-      </c>
-      <c r="L7" s="6">
-        <v>133</v>
-      </c>
-      <c r="M7" s="6">
-        <v>172</v>
-      </c>
-      <c r="N7" s="6">
-        <v>237</v>
-      </c>
-      <c r="O7" s="6">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="17">
-        <v>2</v>
-      </c>
-      <c r="C8" s="18">
-        <v>2</v>
-      </c>
-      <c r="D8" s="18">
-        <v>2</v>
-      </c>
-      <c r="E8" s="18">
-        <v>8</v>
-      </c>
-      <c r="F8" s="18">
-        <v>15</v>
-      </c>
-      <c r="G8" s="18">
-        <v>15</v>
-      </c>
-      <c r="H8" s="18">
-        <v>15</v>
-      </c>
-      <c r="I8" s="18">
-        <v>15</v>
-      </c>
-      <c r="J8" s="18">
-        <v>9</v>
-      </c>
-      <c r="K8" s="18">
-        <v>18</v>
-      </c>
-      <c r="L8" s="18">
-        <v>19</v>
-      </c>
-      <c r="M8" s="18">
-        <v>23</v>
-      </c>
-      <c r="N8" s="18">
-        <v>25</v>
-      </c>
-      <c r="O8" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:M9"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
